--- a/written/presentation/excels/MontecarloPower.xlsx
+++ b/written/presentation/excels/MontecarloPower.xlsx
@@ -2020,11 +2020,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1567838768"/>
-        <c:axId val="-1567836048"/>
+        <c:axId val="111008592"/>
+        <c:axId val="111006960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1567838768"/>
+        <c:axId val="111008592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -2138,12 +2138,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1567836048"/>
+        <c:crossAx val="111006960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1567836048"/>
+        <c:axId val="111006960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2256,7 +2256,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1567838768"/>
+        <c:crossAx val="111008592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3220,7 +3220,7 @@
   <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/written/presentation/excels/MontecarloPower.xlsx
+++ b/written/presentation/excels/MontecarloPower.xlsx
@@ -178,214 +178,214 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="70"/>
                   <c:pt idx="0">
-                    <c:v>15.462159102508201</c:v>
+                    <c:v>10.4874191793088</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>14.929146407062399</c:v>
+                    <c:v>10.736167301867299</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>15.4773942753604</c:v>
+                    <c:v>10.950868573515599</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>14.9634675801707</c:v>
+                    <c:v>10.639681411612401</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>15.6374894967353</c:v>
+                    <c:v>10.440306373635501</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>14.6381393979033</c:v>
+                    <c:v>10.8937517464318</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>15.024325766525999</c:v>
+                    <c:v>10.8280900570131</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>14.6844320615865</c:v>
+                    <c:v>10.8135500344139</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>15.0372092362744</c:v>
+                    <c:v>10.6467416806528</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>14.611433319852001</c:v>
+                    <c:v>10.6085147142892</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>10.494871721342699</c:v>
+                    <c:v>10.7002528808635</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>14.8720522249262</c:v>
+                    <c:v>10.4530819008205</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>15.1543225511417</c:v>
+                    <c:v>10.6723452039835</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>15.153301375582901</c:v>
+                    <c:v>10.4692391732474</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>14.8332445982322</c:v>
+                    <c:v>10.801089116250701</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>15.305727398346599</c:v>
+                    <c:v>10.8904405401557</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>14.950340780646799</c:v>
+                    <c:v>10.8236894691585</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>14.8960457819163</c:v>
+                    <c:v>10.769147744812599</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>14.992315617002999</c:v>
+                    <c:v>10.607912095171001</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>15.0757507537294</c:v>
+                    <c:v>11.0263496749258</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>15.5836839793909</c:v>
+                    <c:v>10.8132279016366</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>15.858444362336201</c:v>
+                    <c:v>10.628500147499601</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>15.890997454113499</c:v>
+                    <c:v>10.7156163921108</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>15.4676084044545</c:v>
+                    <c:v>10.763566645454301</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>14.6154139069208</c:v>
+                    <c:v>10.628742103721301</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>14.855524864688</c:v>
+                    <c:v>10.8791979248989</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>15.052383376345199</c:v>
+                    <c:v>10.950970527018599</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>15.362319969298801</c:v>
+                    <c:v>11.0242518160914</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>14.8104867655</c:v>
+                    <c:v>10.579193207105799</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>15.1833580897018</c:v>
+                    <c:v>10.864410365651</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>15.161702148989001</c:v>
+                    <c:v>10.5460668341196</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>15.3702002950003</c:v>
+                    <c:v>10.1894815883158</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>14.891872422801301</c:v>
+                    <c:v>10.810168279817001</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>14.7158759730015</c:v>
+                    <c:v>10.4627029048529</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>15.193928579443901</c:v>
+                    <c:v>10.5149459791939</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>15.3102111628194</c:v>
+                    <c:v>10.7333418480916</c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v>14.711093110505701</c:v>
+                    <c:v>10.469409497923801</c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v>14.6384794043437</c:v>
+                    <c:v>10.653013571083701</c:v>
                   </c:pt>
                   <c:pt idx="38">
-                    <c:v>14.787656151069999</c:v>
+                    <c:v>10.205633144796099</c:v>
                   </c:pt>
                   <c:pt idx="39">
-                    <c:v>15.5340716992967</c:v>
+                    <c:v>10.813594182143699</c:v>
                   </c:pt>
                   <c:pt idx="40">
-                    <c:v>15.055274118719201</c:v>
+                    <c:v>10.5437415356835</c:v>
                   </c:pt>
                   <c:pt idx="41">
-                    <c:v>15.322123483597901</c:v>
+                    <c:v>10.7727663053703</c:v>
                   </c:pt>
                   <c:pt idx="42">
-                    <c:v>14.968653966077699</c:v>
+                    <c:v>10.5317954392782</c:v>
                   </c:pt>
                   <c:pt idx="43">
-                    <c:v>9.9662200763170503</c:v>
+                    <c:v>10.739886436057301</c:v>
                   </c:pt>
                   <c:pt idx="44">
-                    <c:v>15.612878120476701</c:v>
+                    <c:v>10.6503222748391</c:v>
                   </c:pt>
                   <c:pt idx="45">
-                    <c:v>15.0708790621118</c:v>
+                    <c:v>10.5699361097936</c:v>
                   </c:pt>
                   <c:pt idx="46">
-                    <c:v>15.263532571352201</c:v>
+                    <c:v>10.6992006930427</c:v>
                   </c:pt>
                   <c:pt idx="47">
-                    <c:v>14.710151740388</c:v>
+                    <c:v>10.892448197220901</c:v>
                   </c:pt>
                   <c:pt idx="48">
-                    <c:v>15.049263645294999</c:v>
+                    <c:v>10.517608971335299</c:v>
                   </c:pt>
                   <c:pt idx="49">
-                    <c:v>15.2184923379699</c:v>
+                    <c:v>10.4682050371307</c:v>
                   </c:pt>
                   <c:pt idx="50">
-                    <c:v>15.536736771446</c:v>
+                    <c:v>11.0314810342072</c:v>
                   </c:pt>
                   <c:pt idx="51">
-                    <c:v>14.6384333509979</c:v>
+                    <c:v>11.0848683386814</c:v>
                   </c:pt>
                   <c:pt idx="52">
-                    <c:v>14.832944816946201</c:v>
+                    <c:v>10.6816658908234</c:v>
                   </c:pt>
                   <c:pt idx="53">
-                    <c:v>15.184178937372799</c:v>
+                    <c:v>10.376862479872999</c:v>
                   </c:pt>
                   <c:pt idx="54">
-                    <c:v>14.8243019632682</c:v>
+                    <c:v>10.5424057028746</c:v>
                   </c:pt>
                   <c:pt idx="55">
-                    <c:v>9.8554144277393601</c:v>
+                    <c:v>10.314538255679301</c:v>
                   </c:pt>
                   <c:pt idx="56">
-                    <c:v>14.829222628873801</c:v>
+                    <c:v>10.4506123646927</c:v>
                   </c:pt>
                   <c:pt idx="57">
-                    <c:v>14.753179396158901</c:v>
+                    <c:v>10.9411246703526</c:v>
                   </c:pt>
                   <c:pt idx="58">
-                    <c:v>15.201189925817699</c:v>
+                    <c:v>10.698727646485001</c:v>
                   </c:pt>
                   <c:pt idx="59">
-                    <c:v>15.0964833574983</c:v>
+                    <c:v>10.591922206565</c:v>
                   </c:pt>
                   <c:pt idx="60">
-                    <c:v>15.3503307350245</c:v>
+                    <c:v>10.9081440421251</c:v>
                   </c:pt>
                   <c:pt idx="61">
-                    <c:v>15.501153519516601</c:v>
+                    <c:v>10.660130497302999</c:v>
                   </c:pt>
                   <c:pt idx="62">
-                    <c:v>15.5374874695325</c:v>
+                    <c:v>10.6133437683752</c:v>
                   </c:pt>
                   <c:pt idx="63">
-                    <c:v>14.863370540341201</c:v>
+                    <c:v>10.7763240422802</c:v>
                   </c:pt>
                   <c:pt idx="64">
-                    <c:v>15.5083048332577</c:v>
+                    <c:v>11.349173070529201</c:v>
                   </c:pt>
                   <c:pt idx="65">
-                    <c:v>14.868551038444499</c:v>
+                    <c:v>11.003970949331499</c:v>
                   </c:pt>
                   <c:pt idx="66">
-                    <c:v>15.5180668909115</c:v>
+                    <c:v>11.4662029164875</c:v>
                   </c:pt>
                   <c:pt idx="67">
-                    <c:v>15.575324721089901</c:v>
+                    <c:v>11.853160810763301</c:v>
                   </c:pt>
                   <c:pt idx="68">
-                    <c:v>15.6549866072128</c:v>
+                    <c:v>11.1594568166974</c:v>
                   </c:pt>
                   <c:pt idx="69">
-                    <c:v>15.4620859903081</c:v>
+                    <c:v>11.143293795961201</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -397,214 +397,214 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="70"/>
                   <c:pt idx="0">
-                    <c:v>15.462159102508201</c:v>
+                    <c:v>10.4874191793088</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>14.929146407062399</c:v>
+                    <c:v>10.736167301867299</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>15.4773942753604</c:v>
+                    <c:v>10.950868573515599</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>14.9634675801707</c:v>
+                    <c:v>10.639681411612401</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>15.6374894967353</c:v>
+                    <c:v>10.440306373635501</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>14.6381393979033</c:v>
+                    <c:v>10.8937517464318</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>15.024325766525999</c:v>
+                    <c:v>10.8280900570131</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>14.6844320615865</c:v>
+                    <c:v>10.8135500344139</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>15.0372092362744</c:v>
+                    <c:v>10.6467416806528</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>14.611433319852001</c:v>
+                    <c:v>10.6085147142892</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>10.494871721342699</c:v>
+                    <c:v>10.7002528808635</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>14.8720522249262</c:v>
+                    <c:v>10.4530819008205</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>15.1543225511417</c:v>
+                    <c:v>10.6723452039835</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>15.153301375582901</c:v>
+                    <c:v>10.4692391732474</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>14.8332445982322</c:v>
+                    <c:v>10.801089116250701</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>15.305727398346599</c:v>
+                    <c:v>10.8904405401557</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>14.950340780646799</c:v>
+                    <c:v>10.8236894691585</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>14.8960457819163</c:v>
+                    <c:v>10.769147744812599</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>14.992315617002999</c:v>
+                    <c:v>10.607912095171001</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>15.0757507537294</c:v>
+                    <c:v>11.0263496749258</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>15.5836839793909</c:v>
+                    <c:v>10.8132279016366</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>15.858444362336201</c:v>
+                    <c:v>10.628500147499601</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>15.890997454113499</c:v>
+                    <c:v>10.7156163921108</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>15.4676084044545</c:v>
+                    <c:v>10.763566645454301</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>14.6154139069208</c:v>
+                    <c:v>10.628742103721301</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>14.855524864688</c:v>
+                    <c:v>10.8791979248989</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>15.052383376345199</c:v>
+                    <c:v>10.950970527018599</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>15.362319969298801</c:v>
+                    <c:v>11.0242518160914</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>14.8104867655</c:v>
+                    <c:v>10.579193207105799</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>15.1833580897018</c:v>
+                    <c:v>10.864410365651</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>15.161702148989001</c:v>
+                    <c:v>10.5460668341196</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>15.3702002950003</c:v>
+                    <c:v>10.1894815883158</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>14.891872422801301</c:v>
+                    <c:v>10.810168279817001</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>14.7158759730015</c:v>
+                    <c:v>10.4627029048529</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>15.193928579443901</c:v>
+                    <c:v>10.5149459791939</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>15.3102111628194</c:v>
+                    <c:v>10.7333418480916</c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v>14.711093110505701</c:v>
+                    <c:v>10.469409497923801</c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v>14.6384794043437</c:v>
+                    <c:v>10.653013571083701</c:v>
                   </c:pt>
                   <c:pt idx="38">
-                    <c:v>14.787656151069999</c:v>
+                    <c:v>10.205633144796099</c:v>
                   </c:pt>
                   <c:pt idx="39">
-                    <c:v>15.5340716992967</c:v>
+                    <c:v>10.813594182143699</c:v>
                   </c:pt>
                   <c:pt idx="40">
-                    <c:v>15.055274118719201</c:v>
+                    <c:v>10.5437415356835</c:v>
                   </c:pt>
                   <c:pt idx="41">
-                    <c:v>15.322123483597901</c:v>
+                    <c:v>10.7727663053703</c:v>
                   </c:pt>
                   <c:pt idx="42">
-                    <c:v>14.968653966077699</c:v>
+                    <c:v>10.5317954392782</c:v>
                   </c:pt>
                   <c:pt idx="43">
-                    <c:v>9.9662200763170503</c:v>
+                    <c:v>10.739886436057301</c:v>
                   </c:pt>
                   <c:pt idx="44">
-                    <c:v>15.612878120476701</c:v>
+                    <c:v>10.6503222748391</c:v>
                   </c:pt>
                   <c:pt idx="45">
-                    <c:v>15.0708790621118</c:v>
+                    <c:v>10.5699361097936</c:v>
                   </c:pt>
                   <c:pt idx="46">
-                    <c:v>15.263532571352201</c:v>
+                    <c:v>10.6992006930427</c:v>
                   </c:pt>
                   <c:pt idx="47">
-                    <c:v>14.710151740388</c:v>
+                    <c:v>10.892448197220901</c:v>
                   </c:pt>
                   <c:pt idx="48">
-                    <c:v>15.049263645294999</c:v>
+                    <c:v>10.517608971335299</c:v>
                   </c:pt>
                   <c:pt idx="49">
-                    <c:v>15.2184923379699</c:v>
+                    <c:v>10.4682050371307</c:v>
                   </c:pt>
                   <c:pt idx="50">
-                    <c:v>15.536736771446</c:v>
+                    <c:v>11.0314810342072</c:v>
                   </c:pt>
                   <c:pt idx="51">
-                    <c:v>14.6384333509979</c:v>
+                    <c:v>11.0848683386814</c:v>
                   </c:pt>
                   <c:pt idx="52">
-                    <c:v>14.832944816946201</c:v>
+                    <c:v>10.6816658908234</c:v>
                   </c:pt>
                   <c:pt idx="53">
-                    <c:v>15.184178937372799</c:v>
+                    <c:v>10.376862479872999</c:v>
                   </c:pt>
                   <c:pt idx="54">
-                    <c:v>14.8243019632682</c:v>
+                    <c:v>10.5424057028746</c:v>
                   </c:pt>
                   <c:pt idx="55">
-                    <c:v>9.8554144277393601</c:v>
+                    <c:v>10.314538255679301</c:v>
                   </c:pt>
                   <c:pt idx="56">
-                    <c:v>14.829222628873801</c:v>
+                    <c:v>10.4506123646927</c:v>
                   </c:pt>
                   <c:pt idx="57">
-                    <c:v>14.753179396158901</c:v>
+                    <c:v>10.9411246703526</c:v>
                   </c:pt>
                   <c:pt idx="58">
-                    <c:v>15.201189925817699</c:v>
+                    <c:v>10.698727646485001</c:v>
                   </c:pt>
                   <c:pt idx="59">
-                    <c:v>15.0964833574983</c:v>
+                    <c:v>10.591922206565</c:v>
                   </c:pt>
                   <c:pt idx="60">
-                    <c:v>15.3503307350245</c:v>
+                    <c:v>10.9081440421251</c:v>
                   </c:pt>
                   <c:pt idx="61">
-                    <c:v>15.501153519516601</c:v>
+                    <c:v>10.660130497302999</c:v>
                   </c:pt>
                   <c:pt idx="62">
-                    <c:v>15.5374874695325</c:v>
+                    <c:v>10.6133437683752</c:v>
                   </c:pt>
                   <c:pt idx="63">
-                    <c:v>14.863370540341201</c:v>
+                    <c:v>10.7763240422802</c:v>
                   </c:pt>
                   <c:pt idx="64">
-                    <c:v>15.5083048332577</c:v>
+                    <c:v>11.349173070529201</c:v>
                   </c:pt>
                   <c:pt idx="65">
-                    <c:v>14.868551038444499</c:v>
+                    <c:v>11.003970949331499</c:v>
                   </c:pt>
                   <c:pt idx="66">
-                    <c:v>15.5180668909115</c:v>
+                    <c:v>11.4662029164875</c:v>
                   </c:pt>
                   <c:pt idx="67">
-                    <c:v>15.575324721089901</c:v>
+                    <c:v>11.853160810763301</c:v>
                   </c:pt>
                   <c:pt idx="68">
-                    <c:v>15.6549866072128</c:v>
+                    <c:v>11.1594568166974</c:v>
                   </c:pt>
                   <c:pt idx="69">
-                    <c:v>15.4620859903081</c:v>
+                    <c:v>11.143293795961201</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -846,214 +846,214 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>31.899842674776298</c:v>
+                  <c:v>3.9848176848730801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.175313560287499</c:v>
+                  <c:v>3.8791193911203998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.714494171987901</c:v>
+                  <c:v>4.08887563957148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.7399927849245</c:v>
+                  <c:v>3.7207677671395398</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.564139209596803</c:v>
+                  <c:v>3.8949688301388399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.513988675266603</c:v>
+                  <c:v>3.9745555874339402</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.3725089237989</c:v>
+                  <c:v>4.2042426345964996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.669512584967901</c:v>
+                  <c:v>3.9818178068211498</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.841126545105102</c:v>
+                  <c:v>3.96517448314578</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.6541228276791</c:v>
+                  <c:v>4.0582935863610503</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-33.701742993113797</c:v>
+                  <c:v>-34.549197646863597</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32.199245462842299</c:v>
+                  <c:v>4.1725089749181397</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31.681147444448001</c:v>
+                  <c:v>4.2160533859646296</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31.728046514363299</c:v>
+                  <c:v>4.0980546272825604</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31.897742309593902</c:v>
+                  <c:v>3.8753300663583801</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32.1604840362291</c:v>
+                  <c:v>3.77564843956785</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31.129353711426599</c:v>
+                  <c:v>3.8851084290350002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32.172096488683401</c:v>
+                  <c:v>3.6191655214290401</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32.068433228906798</c:v>
+                  <c:v>3.9822231582322001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32.652078425839299</c:v>
+                  <c:v>3.48585622316345</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31.7137421809757</c:v>
+                  <c:v>3.75319458517736</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>31.8614875182014</c:v>
+                  <c:v>3.6202050571134898</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>31.7228379690503</c:v>
+                  <c:v>3.59445702430952</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>31.1653464697951</c:v>
+                  <c:v>3.9647487332174101</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>32.399253331128399</c:v>
+                  <c:v>3.5988968836028801</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>31.939912900592802</c:v>
+                  <c:v>3.64637537192502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>31.6553331169603</c:v>
+                  <c:v>3.98954394476511</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>32.677884366522399</c:v>
+                  <c:v>3.53126687888044</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>32.6394680633204</c:v>
+                  <c:v>3.80630402420993</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>32.543223370681702</c:v>
+                  <c:v>3.81347665682036</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31.530342751587298</c:v>
+                  <c:v>4.04764214267529</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31.808155060899502</c:v>
+                  <c:v>3.8017356520145502</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32.0445047387648</c:v>
+                  <c:v>3.9267010326105498</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>31.806359781265101</c:v>
+                  <c:v>3.6720076031125601</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>31.696989607525602</c:v>
+                  <c:v>3.7438405490367601</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>32.064039613688301</c:v>
+                  <c:v>3.80346274956888</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>32.116286196015203</c:v>
+                  <c:v>3.71273786574542</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>31.9027551095975</c:v>
+                  <c:v>3.7287433416497402</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>32.235312705076403</c:v>
+                  <c:v>3.9860927996223499</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>31.326355873348302</c:v>
+                  <c:v>4.3094703545066801</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>32.087379585913297</c:v>
+                  <c:v>3.9901666521208798</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>32.123658475077001</c:v>
+                  <c:v>3.6896144560503199</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>32.1086345607063</c:v>
+                  <c:v>3.88159516257029</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-33.509912234416902</c:v>
+                  <c:v>-34.272157919074402</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>31.675901499199899</c:v>
+                  <c:v>3.8964491726745099</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>32.415471812396</c:v>
+                  <c:v>4.2214756343070698</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>32.1818625714563</c:v>
+                  <c:v>4.0287645196313999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>32.330179823772397</c:v>
+                  <c:v>3.9656431265094398</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>31.817661130728801</c:v>
+                  <c:v>3.6925439186098599</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>32.047492846570499</c:v>
+                  <c:v>3.8748132269587701</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>31.664411189814199</c:v>
+                  <c:v>4.3473789548358797</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>32.413000936685897</c:v>
+                  <c:v>3.90761782035176</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>31.509857721096498</c:v>
+                  <c:v>4.02695139442352</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>31.7874817239097</c:v>
+                  <c:v>4.0059470604229999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>32.021679161445903</c:v>
+                  <c:v>3.9104264955949501</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-33.074739585474198</c:v>
+                  <c:v>-33.688570337355401</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>31.783782092744499</c:v>
+                  <c:v>3.8174048396420202</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>32.068072222957603</c:v>
+                  <c:v>4.3575847911116599</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>31.712858091437202</c:v>
+                  <c:v>3.9622023376858002</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>31.972051881977801</c:v>
+                  <c:v>3.8821304786161099</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>31.519676899021299</c:v>
+                  <c:v>3.89401291611258</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>31.891475247679899</c:v>
+                  <c:v>3.7473760430438299</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>31.4908277628859</c:v>
+                  <c:v>3.7765055315612699</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>32.047548492055199</c:v>
+                  <c:v>3.80191570802043</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>31.686141516780499</c:v>
+                  <c:v>4.1033085240878302</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>31.7603395990885</c:v>
+                  <c:v>3.9751397114642102</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>31.6443355250384</c:v>
+                  <c:v>4.0182282502417603</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>32.056388861864498</c:v>
+                  <c:v>4.1760746386853702</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>31.528572646987399</c:v>
+                  <c:v>3.95939687855914</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>31.674279506165899</c:v>
+                  <c:v>4.0910455539884696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1130,214 +1130,214 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="70"/>
                   <c:pt idx="0">
-                    <c:v>1.1283304995125301</c:v>
+                    <c:v>1.09838600150609</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.13552835611035</c:v>
+                    <c:v>1.1286841198675299</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.1334187104386699</c:v>
+                    <c:v>1.1350612418927899</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.12113284240922</c:v>
+                    <c:v>1.1038454632222101</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.1561504797689199</c:v>
+                    <c:v>1.13408443508761</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.14599863728355</c:v>
+                    <c:v>1.1604165235746</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.13238759261805</c:v>
+                    <c:v>1.14100339170883</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.1430394635102401</c:v>
+                    <c:v>1.11441956121367</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.12107394076984</c:v>
+                    <c:v>1.1180781273045099</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.1489533587254199</c:v>
+                    <c:v>1.09903318286329</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>10.494871721342699</c:v>
+                    <c:v>10.7002528808635</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.15392143569841</c:v>
+                    <c:v>1.12293961991487</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>1.1359888786677399</c:v>
+                    <c:v>1.12946402211983</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>1.1233328823684301</c:v>
+                    <c:v>1.1364770573471099</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>1.1391724473999101</c:v>
+                    <c:v>1.1405349245349501</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1.1504131892658001</c:v>
+                    <c:v>1.1671471398042399</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.16000161676227</c:v>
+                    <c:v>1.1326771903411099</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>1.1562799499912999</c:v>
+                    <c:v>1.1331149496030399</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>1.14149091472512</c:v>
+                    <c:v>1.13494651518496</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>1.1743094903400499</c:v>
+                    <c:v>1.13236894456923</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>1.13706661694379</c:v>
+                    <c:v>1.12738337888038</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>1.1304413775639299</c:v>
+                    <c:v>1.1352920657521799</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>1.15583364670067</c:v>
+                    <c:v>1.13081050564575</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>1.1542424672691001</c:v>
+                    <c:v>1.1295021856312699</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>1.1649902246461901</c:v>
+                    <c:v>1.11783073380466</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>1.1507504894573699</c:v>
+                    <c:v>1.13119804570155</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>1.1376193649950701</c:v>
+                    <c:v>1.14201817863822</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>1.1280248355487601</c:v>
+                    <c:v>1.1358669542611901</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>1.13168608556321</c:v>
+                    <c:v>1.1253504239501</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>1.1366163237609599</c:v>
+                    <c:v>1.1430940267530001</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>1.10931158599646</c:v>
+                    <c:v>1.08707697654483</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>1.13027697287854</c:v>
+                    <c:v>1.1264358900778699</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>1.12720998629363</c:v>
+                    <c:v>1.1357505340473799</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>1.1561133665527601</c:v>
+                    <c:v>1.1448608759300001</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>1.00313018893161</c:v>
+                    <c:v>1.02178033936527</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>1.1581263287879899</c:v>
+                    <c:v>1.11882599981617</c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v>1.17162232979991</c:v>
+                    <c:v>1.1653708563096301</c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v>1.16618647308668</c:v>
+                    <c:v>1.1526453879605201</c:v>
                   </c:pt>
                   <c:pt idx="38">
-                    <c:v>1.1667501214390299</c:v>
+                    <c:v>1.1291468990148401</c:v>
                   </c:pt>
                   <c:pt idx="39">
-                    <c:v>1.14410902498407</c:v>
+                    <c:v>1.1360709641556399</c:v>
                   </c:pt>
                   <c:pt idx="40">
-                    <c:v>1.1155918427549201</c:v>
+                    <c:v>1.1125835985107899</c:v>
                   </c:pt>
                   <c:pt idx="41">
-                    <c:v>1.13808363536631</c:v>
+                    <c:v>1.1186316407613399</c:v>
                   </c:pt>
                   <c:pt idx="42">
-                    <c:v>1.1698907258140301</c:v>
+                    <c:v>1.13126642772018</c:v>
                   </c:pt>
                   <c:pt idx="43">
-                    <c:v>9.9662200763170503</c:v>
+                    <c:v>10.739886436057301</c:v>
                   </c:pt>
                   <c:pt idx="44">
-                    <c:v>1.1439033676936401</c:v>
+                    <c:v>1.14657518209091</c:v>
                   </c:pt>
                   <c:pt idx="45">
-                    <c:v>1.13966798004338</c:v>
+                    <c:v>1.1302258894189701</c:v>
                   </c:pt>
                   <c:pt idx="46">
-                    <c:v>1.1428170273653</c:v>
+                    <c:v>1.13485942671735</c:v>
                   </c:pt>
                   <c:pt idx="47">
-                    <c:v>1.1539217689741601</c:v>
+                    <c:v>1.1058639822905301</c:v>
                   </c:pt>
                   <c:pt idx="48">
-                    <c:v>1.1284226595034299</c:v>
+                    <c:v>1.1304651973315101</c:v>
                   </c:pt>
                   <c:pt idx="49">
-                    <c:v>1.13299650639419</c:v>
+                    <c:v>1.1388471301207299</c:v>
                   </c:pt>
                   <c:pt idx="50">
-                    <c:v>1.13085608748664</c:v>
+                    <c:v>1.1073528550906599</c:v>
                   </c:pt>
                   <c:pt idx="51">
-                    <c:v>1.12010830102819</c:v>
+                    <c:v>1.1482894527643399</c:v>
                   </c:pt>
                   <c:pt idx="52">
-                    <c:v>1.1388541862977</c:v>
+                    <c:v>1.1118099783025901</c:v>
                   </c:pt>
                   <c:pt idx="53">
-                    <c:v>1.1407664259018799</c:v>
+                    <c:v>1.1569277958823101</c:v>
                   </c:pt>
                   <c:pt idx="54">
-                    <c:v>1.1592312618121701</c:v>
+                    <c:v>1.1333324321867</c:v>
                   </c:pt>
                   <c:pt idx="55">
-                    <c:v>9.8554144277393601</c:v>
+                    <c:v>10.314538255679301</c:v>
                   </c:pt>
                   <c:pt idx="56">
-                    <c:v>1.1783356748546201</c:v>
+                    <c:v>1.1306538228185199</c:v>
                   </c:pt>
                   <c:pt idx="57">
-                    <c:v>1.1488423581328699</c:v>
+                    <c:v>1.1543305985527199</c:v>
                   </c:pt>
                   <c:pt idx="58">
-                    <c:v>1.13430802835223</c:v>
+                    <c:v>1.15071531012567</c:v>
                   </c:pt>
                   <c:pt idx="59">
-                    <c:v>1.1312680516997899</c:v>
+                    <c:v>1.1388816031670701</c:v>
                   </c:pt>
                   <c:pt idx="60">
-                    <c:v>1.15230930282777</c:v>
+                    <c:v>1.1085565378415001</c:v>
                   </c:pt>
                   <c:pt idx="61">
-                    <c:v>1.15484077435723</c:v>
+                    <c:v>1.1528959009231601</c:v>
                   </c:pt>
                   <c:pt idx="62">
-                    <c:v>1.1650240772706699</c:v>
+                    <c:v>1.1584047842954901</c:v>
                   </c:pt>
                   <c:pt idx="63">
-                    <c:v>1.1357616404058299</c:v>
+                    <c:v>1.10994467174235</c:v>
                   </c:pt>
                   <c:pt idx="64">
-                    <c:v>1.1690727990144101</c:v>
+                    <c:v>1.1406304270052601</c:v>
                   </c:pt>
                   <c:pt idx="65">
-                    <c:v>1.17686037601647</c:v>
+                    <c:v>1.1233832544108</c:v>
                   </c:pt>
                   <c:pt idx="66">
-                    <c:v>1.1362507381862299</c:v>
+                    <c:v>1.10960025911199</c:v>
                   </c:pt>
                   <c:pt idx="67">
-                    <c:v>1.09373527766032</c:v>
+                    <c:v>1.1299890446493199</c:v>
                   </c:pt>
                   <c:pt idx="68">
-                    <c:v>1.14428867790379</c:v>
+                    <c:v>1.1395148006946301</c:v>
                   </c:pt>
                   <c:pt idx="69">
-                    <c:v>1.1415853505065801</c:v>
+                    <c:v>1.1234169617794001</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1349,214 +1349,214 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="70"/>
                   <c:pt idx="0">
-                    <c:v>1.1283304995125301</c:v>
+                    <c:v>1.09838600150609</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.13552835611035</c:v>
+                    <c:v>1.1286841198675299</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.1334187104386699</c:v>
+                    <c:v>1.1350612418927899</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.12113284240922</c:v>
+                    <c:v>1.1038454632222101</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.1561504797689199</c:v>
+                    <c:v>1.13408443508761</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.14599863728355</c:v>
+                    <c:v>1.1604165235746</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.13238759261805</c:v>
+                    <c:v>1.14100339170883</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.1430394635102401</c:v>
+                    <c:v>1.11441956121367</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.12107394076984</c:v>
+                    <c:v>1.1180781273045099</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.1489533587254199</c:v>
+                    <c:v>1.09903318286329</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>10.494871721342699</c:v>
+                    <c:v>10.7002528808635</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.15392143569841</c:v>
+                    <c:v>1.12293961991487</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>1.1359888786677399</c:v>
+                    <c:v>1.12946402211983</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>1.1233328823684301</c:v>
+                    <c:v>1.1364770573471099</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>1.1391724473999101</c:v>
+                    <c:v>1.1405349245349501</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1.1504131892658001</c:v>
+                    <c:v>1.1671471398042399</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.16000161676227</c:v>
+                    <c:v>1.1326771903411099</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>1.1562799499912999</c:v>
+                    <c:v>1.1331149496030399</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>1.14149091472512</c:v>
+                    <c:v>1.13494651518496</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>1.1743094903400499</c:v>
+                    <c:v>1.13236894456923</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>1.13706661694379</c:v>
+                    <c:v>1.12738337888038</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>1.1304413775639299</c:v>
+                    <c:v>1.1352920657521799</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>1.15583364670067</c:v>
+                    <c:v>1.13081050564575</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>1.1542424672691001</c:v>
+                    <c:v>1.1295021856312699</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>1.1649902246461901</c:v>
+                    <c:v>1.11783073380466</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>1.1507504894573699</c:v>
+                    <c:v>1.13119804570155</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>1.1376193649950701</c:v>
+                    <c:v>1.14201817863822</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>1.1280248355487601</c:v>
+                    <c:v>1.1358669542611901</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>1.13168608556321</c:v>
+                    <c:v>1.1253504239501</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>1.1366163237609599</c:v>
+                    <c:v>1.1430940267530001</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>1.10931158599646</c:v>
+                    <c:v>1.08707697654483</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>1.13027697287854</c:v>
+                    <c:v>1.1264358900778699</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>1.12720998629363</c:v>
+                    <c:v>1.1357505340473799</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>1.1561133665527601</c:v>
+                    <c:v>1.1448608759300001</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>1.00313018893161</c:v>
+                    <c:v>1.02178033936527</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>1.1581263287879899</c:v>
+                    <c:v>1.11882599981617</c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v>1.17162232979991</c:v>
+                    <c:v>1.1653708563096301</c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v>1.16618647308668</c:v>
+                    <c:v>1.1526453879605201</c:v>
                   </c:pt>
                   <c:pt idx="38">
-                    <c:v>1.1667501214390299</c:v>
+                    <c:v>1.1291468990148401</c:v>
                   </c:pt>
                   <c:pt idx="39">
-                    <c:v>1.14410902498407</c:v>
+                    <c:v>1.1360709641556399</c:v>
                   </c:pt>
                   <c:pt idx="40">
-                    <c:v>1.1155918427549201</c:v>
+                    <c:v>1.1125835985107899</c:v>
                   </c:pt>
                   <c:pt idx="41">
-                    <c:v>1.13808363536631</c:v>
+                    <c:v>1.1186316407613399</c:v>
                   </c:pt>
                   <c:pt idx="42">
-                    <c:v>1.1698907258140301</c:v>
+                    <c:v>1.13126642772018</c:v>
                   </c:pt>
                   <c:pt idx="43">
-                    <c:v>9.9662200763170503</c:v>
+                    <c:v>10.739886436057301</c:v>
                   </c:pt>
                   <c:pt idx="44">
-                    <c:v>1.1439033676936401</c:v>
+                    <c:v>1.14657518209091</c:v>
                   </c:pt>
                   <c:pt idx="45">
-                    <c:v>1.13966798004338</c:v>
+                    <c:v>1.1302258894189701</c:v>
                   </c:pt>
                   <c:pt idx="46">
-                    <c:v>1.1428170273653</c:v>
+                    <c:v>1.13485942671735</c:v>
                   </c:pt>
                   <c:pt idx="47">
-                    <c:v>1.1539217689741601</c:v>
+                    <c:v>1.1058639822905301</c:v>
                   </c:pt>
                   <c:pt idx="48">
-                    <c:v>1.1284226595034299</c:v>
+                    <c:v>1.1304651973315101</c:v>
                   </c:pt>
                   <c:pt idx="49">
-                    <c:v>1.13299650639419</c:v>
+                    <c:v>1.1388471301207299</c:v>
                   </c:pt>
                   <c:pt idx="50">
-                    <c:v>1.13085608748664</c:v>
+                    <c:v>1.1073528550906599</c:v>
                   </c:pt>
                   <c:pt idx="51">
-                    <c:v>1.12010830102819</c:v>
+                    <c:v>1.1482894527643399</c:v>
                   </c:pt>
                   <c:pt idx="52">
-                    <c:v>1.1388541862977</c:v>
+                    <c:v>1.1118099783025901</c:v>
                   </c:pt>
                   <c:pt idx="53">
-                    <c:v>1.1407664259018799</c:v>
+                    <c:v>1.1569277958823101</c:v>
                   </c:pt>
                   <c:pt idx="54">
-                    <c:v>1.1592312618121701</c:v>
+                    <c:v>1.1333324321867</c:v>
                   </c:pt>
                   <c:pt idx="55">
-                    <c:v>9.8554144277393601</c:v>
+                    <c:v>10.314538255679301</c:v>
                   </c:pt>
                   <c:pt idx="56">
-                    <c:v>1.1783356748546201</c:v>
+                    <c:v>1.1306538228185199</c:v>
                   </c:pt>
                   <c:pt idx="57">
-                    <c:v>1.1488423581328699</c:v>
+                    <c:v>1.1543305985527199</c:v>
                   </c:pt>
                   <c:pt idx="58">
-                    <c:v>1.13430802835223</c:v>
+                    <c:v>1.15071531012567</c:v>
                   </c:pt>
                   <c:pt idx="59">
-                    <c:v>1.1312680516997899</c:v>
+                    <c:v>1.1388816031670701</c:v>
                   </c:pt>
                   <c:pt idx="60">
-                    <c:v>1.15230930282777</c:v>
+                    <c:v>1.1085565378415001</c:v>
                   </c:pt>
                   <c:pt idx="61">
-                    <c:v>1.15484077435723</c:v>
+                    <c:v>1.1528959009231601</c:v>
                   </c:pt>
                   <c:pt idx="62">
-                    <c:v>1.1650240772706699</c:v>
+                    <c:v>1.1584047842954901</c:v>
                   </c:pt>
                   <c:pt idx="63">
-                    <c:v>1.1357616404058299</c:v>
+                    <c:v>1.10994467174235</c:v>
                   </c:pt>
                   <c:pt idx="64">
-                    <c:v>1.1690727990144101</c:v>
+                    <c:v>1.1406304270052601</c:v>
                   </c:pt>
                   <c:pt idx="65">
-                    <c:v>1.17686037601647</c:v>
+                    <c:v>1.1233832544108</c:v>
                   </c:pt>
                   <c:pt idx="66">
-                    <c:v>1.1362507381862299</c:v>
+                    <c:v>1.10960025911199</c:v>
                   </c:pt>
                   <c:pt idx="67">
-                    <c:v>1.09373527766032</c:v>
+                    <c:v>1.1299890446493199</c:v>
                   </c:pt>
                   <c:pt idx="68">
-                    <c:v>1.14428867790379</c:v>
+                    <c:v>1.1395148006946301</c:v>
                   </c:pt>
                   <c:pt idx="69">
-                    <c:v>1.1415853505065801</c:v>
+                    <c:v>1.1234169617794001</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1798,214 +1798,214 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>5.9899241235109004</c:v>
+                  <c:v>6.0427109855152601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9863245332395998</c:v>
+                  <c:v>6.0451160641370896</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9923456624195204</c:v>
+                  <c:v>6.0604608408188501</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0225600189320101</c:v>
+                  <c:v>6.0726212718087096</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0074150477044803</c:v>
+                  <c:v>6.0444589810328999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0047614017338704</c:v>
+                  <c:v>6.0208513790741502</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0273843699613199</c:v>
+                  <c:v>6.0555834720893902</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0087880485074301</c:v>
+                  <c:v>6.0466792563520402</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0103311834270903</c:v>
+                  <c:v>6.0507030219658899</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.0118732345192596</c:v>
+                  <c:v>6.0562149956586904</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-33.701742993113797</c:v>
+                  <c:v>-34.549197646863597</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.9975598270363601</c:v>
+                  <c:v>6.0441864347053604</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.0082261291430097</c:v>
+                  <c:v>6.0306419277200103</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.9865628569366498</c:v>
+                  <c:v>6.0460695623067098</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.0037032985404801</c:v>
+                  <c:v>6.0409619187317798</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.99784822256815</c:v>
+                  <c:v>6.0417740901577197</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.0118053965350899</c:v>
+                  <c:v>6.0714398766634003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.9767784856189596</c:v>
+                  <c:v>6.0539525849373002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.9918440854338497</c:v>
+                  <c:v>6.0376017469697798</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.0080618310896696</c:v>
+                  <c:v>6.0326636058119796</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.9846588341839899</c:v>
+                  <c:v>6.0851588131676504</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.0127651211747404</c:v>
+                  <c:v>6.0829433665034101</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.0426604912035096</c:v>
+                  <c:v>6.0608438108660296</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.9931227746105602</c:v>
+                  <c:v>6.0380211114056799</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.99435255516899</c:v>
+                  <c:v>6.0634795802229604</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.0203166337793199</c:v>
+                  <c:v>6.04660475141044</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.0261883377454701</c:v>
+                  <c:v>6.0209329767400801</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.9833730790897599</c:v>
+                  <c:v>6.0848448980980203</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.0010013237517299</c:v>
+                  <c:v>6.0717053751446004</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.9916229188355601</c:v>
+                  <c:v>6.0216861054949096</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.0023241112603696</c:v>
+                  <c:v>6.0340306200298803</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.0005126319580304</c:v>
+                  <c:v>6.0646665362779997</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.0076384559872196</c:v>
+                  <c:v>6.0029495674033697</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.02428549727491</c:v>
+                  <c:v>6.0443744392864902</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.0284850037223103</c:v>
+                  <c:v>6.0206859971949402</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.0095641505147901</c:v>
+                  <c:v>6.0435076529459204</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.9778125126410302</c:v>
+                  <c:v>6.0718696086247101</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.9928056594117596</c:v>
+                  <c:v>6.0680886238245098</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.0179433471639001</c:v>
+                  <c:v>6.0622885822233199</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.01801750598678</c:v>
+                  <c:v>6.0257952532161703</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.0035395957909996</c:v>
+                  <c:v>6.0507184154481699</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.0003606355985903</c:v>
+                  <c:v>6.0385734433430498</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.0116498810435797</c:v>
+                  <c:v>6.0471083376552599</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-33.509912234416902</c:v>
+                  <c:v>-34.272157919074402</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.9941546156258196</c:v>
+                  <c:v>6.03914792457776</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.9991611725942402</c:v>
+                  <c:v>6.0175708272400099</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.0118930812593199</c:v>
+                  <c:v>6.0492794670490602</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.0093285782500603</c:v>
+                  <c:v>6.0548750830972002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.00525934229002</c:v>
+                  <c:v>6.0487495617115004</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.9951770479473403</c:v>
+                  <c:v>6.0278754143153197</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.0110465028157396</c:v>
+                  <c:v>6.0456276605912302</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.0257633995536102</c:v>
+                  <c:v>6.0703713727829403</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.9841428387741598</c:v>
+                  <c:v>6.0471634855310299</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.0044094566729704</c:v>
+                  <c:v>6.0451819431257698</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.98293494836817</c:v>
+                  <c:v>6.06196749269035</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-33.074739585474198</c:v>
+                  <c:v>-33.688570337355401</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.9938485277440696</c:v>
+                  <c:v>6.0468964293840299</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.0035485892071403</c:v>
+                  <c:v>6.0377895139114699</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.0037717719800598</c:v>
+                  <c:v>6.0585973431038704</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.9724477328029497</c:v>
+                  <c:v>6.0243104090797504</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.0261874983667996</c:v>
+                  <c:v>6.0646866758560902</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.0145296890029698</c:v>
+                  <c:v>6.0356088691931298</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.9961180059234502</c:v>
+                  <c:v>6.0573789609874398</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.0164725134285</c:v>
+                  <c:v>6.0472940763777103</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6.03762628660151</c:v>
+                  <c:v>6.0918038161938499</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.9997985169127901</c:v>
+                  <c:v>6.0744420907000496</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5.98210850987918</c:v>
+                  <c:v>6.0402209373153797</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6.0146271000445299</c:v>
+                  <c:v>6.0275834440365204</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5.9961745495162297</c:v>
+                  <c:v>6.04586470939807</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6.0100917344294702</c:v>
+                  <c:v>6.0665356268741597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2020,11 +2020,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="111008592"/>
-        <c:axId val="111006960"/>
+        <c:axId val="-1715997584"/>
+        <c:axId val="-1716005200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="111008592"/>
+        <c:axId val="-1715997584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -2138,12 +2138,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111006960"/>
+        <c:crossAx val="-1716005200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111006960"/>
+        <c:axId val="-1716005200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2256,7 +2256,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111008592"/>
+        <c:crossAx val="-1715997584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3220,7 +3220,7 @@
   <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3247,16 +3247,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>31.899842674776298</v>
+        <v>3.9848176848730801</v>
       </c>
       <c r="C2">
-        <v>15.462159102508201</v>
+        <v>10.4874191793088</v>
       </c>
       <c r="D2">
-        <v>5.9899241235109004</v>
+        <v>6.0427109855152601</v>
       </c>
       <c r="E2">
-        <v>1.1283304995125301</v>
+        <v>1.09838600150609</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -3264,16 +3264,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31.175313560287499</v>
+        <v>3.8791193911203998</v>
       </c>
       <c r="C3">
-        <v>14.929146407062399</v>
+        <v>10.736167301867299</v>
       </c>
       <c r="D3">
-        <v>5.9863245332395998</v>
+        <v>6.0451160641370896</v>
       </c>
       <c r="E3">
-        <v>1.13552835611035</v>
+        <v>1.1286841198675299</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -3281,16 +3281,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>31.714494171987901</v>
+        <v>4.08887563957148</v>
       </c>
       <c r="C4">
-        <v>15.4773942753604</v>
+        <v>10.950868573515599</v>
       </c>
       <c r="D4">
-        <v>5.9923456624195204</v>
+        <v>6.0604608408188501</v>
       </c>
       <c r="E4">
-        <v>1.1334187104386699</v>
+        <v>1.1350612418927899</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -3298,16 +3298,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>31.7399927849245</v>
+        <v>3.7207677671395398</v>
       </c>
       <c r="C5">
-        <v>14.9634675801707</v>
+        <v>10.639681411612401</v>
       </c>
       <c r="D5">
-        <v>6.0225600189320101</v>
+        <v>6.0726212718087096</v>
       </c>
       <c r="E5">
-        <v>1.12113284240922</v>
+        <v>1.1038454632222101</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -3315,16 +3315,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>32.564139209596803</v>
+        <v>3.8949688301388399</v>
       </c>
       <c r="C6">
-        <v>15.6374894967353</v>
+        <v>10.440306373635501</v>
       </c>
       <c r="D6">
-        <v>6.0074150477044803</v>
+        <v>6.0444589810328999</v>
       </c>
       <c r="E6">
-        <v>1.1561504797689199</v>
+        <v>1.13408443508761</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -3332,16 +3332,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>32.513988675266603</v>
+        <v>3.9745555874339402</v>
       </c>
       <c r="C7">
-        <v>14.6381393979033</v>
+        <v>10.8937517464318</v>
       </c>
       <c r="D7">
-        <v>6.0047614017338704</v>
+        <v>6.0208513790741502</v>
       </c>
       <c r="E7">
-        <v>1.14599863728355</v>
+        <v>1.1604165235746</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -3349,16 +3349,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31.3725089237989</v>
+        <v>4.2042426345964996</v>
       </c>
       <c r="C8">
-        <v>15.024325766525999</v>
+        <v>10.8280900570131</v>
       </c>
       <c r="D8">
-        <v>6.0273843699613199</v>
+        <v>6.0555834720893902</v>
       </c>
       <c r="E8">
-        <v>1.13238759261805</v>
+        <v>1.14100339170883</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -3366,16 +3366,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31.669512584967901</v>
+        <v>3.9818178068211498</v>
       </c>
       <c r="C9">
-        <v>14.6844320615865</v>
+        <v>10.8135500344139</v>
       </c>
       <c r="D9">
-        <v>6.0087880485074301</v>
+        <v>6.0466792563520402</v>
       </c>
       <c r="E9">
-        <v>1.1430394635102401</v>
+        <v>1.11441956121367</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -3383,16 +3383,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.841126545105102</v>
+        <v>3.96517448314578</v>
       </c>
       <c r="C10">
-        <v>15.0372092362744</v>
+        <v>10.6467416806528</v>
       </c>
       <c r="D10">
-        <v>6.0103311834270903</v>
+        <v>6.0507030219658899</v>
       </c>
       <c r="E10">
-        <v>1.12107394076984</v>
+        <v>1.1180781273045099</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -3400,16 +3400,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.6541228276791</v>
+        <v>4.0582935863610503</v>
       </c>
       <c r="C11">
-        <v>14.611433319852001</v>
+        <v>10.6085147142892</v>
       </c>
       <c r="D11">
-        <v>6.0118732345192596</v>
+        <v>6.0562149956586904</v>
       </c>
       <c r="E11">
-        <v>1.1489533587254199</v>
+        <v>1.09903318286329</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -3417,16 +3417,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-33.701742993113797</v>
+        <v>-34.549197646863597</v>
       </c>
       <c r="C12">
-        <v>10.494871721342699</v>
+        <v>10.7002528808635</v>
       </c>
       <c r="D12">
-        <v>-33.701742993113797</v>
+        <v>-34.549197646863597</v>
       </c>
       <c r="E12">
-        <v>10.494871721342699</v>
+        <v>10.7002528808635</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -3434,16 +3434,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.199245462842299</v>
+        <v>4.1725089749181397</v>
       </c>
       <c r="C13">
-        <v>14.8720522249262</v>
+        <v>10.4530819008205</v>
       </c>
       <c r="D13">
-        <v>5.9975598270363601</v>
+        <v>6.0441864347053604</v>
       </c>
       <c r="E13">
-        <v>1.15392143569841</v>
+        <v>1.12293961991487</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -3451,16 +3451,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.681147444448001</v>
+        <v>4.2160533859646296</v>
       </c>
       <c r="C14">
-        <v>15.1543225511417</v>
+        <v>10.6723452039835</v>
       </c>
       <c r="D14">
-        <v>6.0082261291430097</v>
+        <v>6.0306419277200103</v>
       </c>
       <c r="E14">
-        <v>1.1359888786677399</v>
+        <v>1.12946402211983</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -3468,16 +3468,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.728046514363299</v>
+        <v>4.0980546272825604</v>
       </c>
       <c r="C15">
-        <v>15.153301375582901</v>
+        <v>10.4692391732474</v>
       </c>
       <c r="D15">
-        <v>5.9865628569366498</v>
+        <v>6.0460695623067098</v>
       </c>
       <c r="E15">
-        <v>1.1233328823684301</v>
+        <v>1.1364770573471099</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -3485,16 +3485,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.897742309593902</v>
+        <v>3.8753300663583801</v>
       </c>
       <c r="C16">
-        <v>14.8332445982322</v>
+        <v>10.801089116250701</v>
       </c>
       <c r="D16">
-        <v>6.0037032985404801</v>
+        <v>6.0409619187317798</v>
       </c>
       <c r="E16">
-        <v>1.1391724473999101</v>
+        <v>1.1405349245349501</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3502,16 +3502,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.1604840362291</v>
+        <v>3.77564843956785</v>
       </c>
       <c r="C17">
-        <v>15.305727398346599</v>
+        <v>10.8904405401557</v>
       </c>
       <c r="D17">
-        <v>5.99784822256815</v>
+        <v>6.0417740901577197</v>
       </c>
       <c r="E17">
-        <v>1.1504131892658001</v>
+        <v>1.1671471398042399</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3519,16 +3519,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.129353711426599</v>
+        <v>3.8851084290350002</v>
       </c>
       <c r="C18">
-        <v>14.950340780646799</v>
+        <v>10.8236894691585</v>
       </c>
       <c r="D18">
-        <v>6.0118053965350899</v>
+        <v>6.0714398766634003</v>
       </c>
       <c r="E18">
-        <v>1.16000161676227</v>
+        <v>1.1326771903411099</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3536,16 +3536,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.172096488683401</v>
+        <v>3.6191655214290401</v>
       </c>
       <c r="C19">
-        <v>14.8960457819163</v>
+        <v>10.769147744812599</v>
       </c>
       <c r="D19">
-        <v>5.9767784856189596</v>
+        <v>6.0539525849373002</v>
       </c>
       <c r="E19">
-        <v>1.1562799499912999</v>
+        <v>1.1331149496030399</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3553,16 +3553,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.068433228906798</v>
+        <v>3.9822231582322001</v>
       </c>
       <c r="C20">
-        <v>14.992315617002999</v>
+        <v>10.607912095171001</v>
       </c>
       <c r="D20">
-        <v>5.9918440854338497</v>
+        <v>6.0376017469697798</v>
       </c>
       <c r="E20">
-        <v>1.14149091472512</v>
+        <v>1.13494651518496</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3570,16 +3570,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.652078425839299</v>
+        <v>3.48585622316345</v>
       </c>
       <c r="C21">
-        <v>15.0757507537294</v>
+        <v>11.0263496749258</v>
       </c>
       <c r="D21">
-        <v>6.0080618310896696</v>
+        <v>6.0326636058119796</v>
       </c>
       <c r="E21">
-        <v>1.1743094903400499</v>
+        <v>1.13236894456923</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3587,16 +3587,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.7137421809757</v>
+        <v>3.75319458517736</v>
       </c>
       <c r="C22">
-        <v>15.5836839793909</v>
+        <v>10.8132279016366</v>
       </c>
       <c r="D22">
-        <v>5.9846588341839899</v>
+        <v>6.0851588131676504</v>
       </c>
       <c r="E22">
-        <v>1.13706661694379</v>
+        <v>1.12738337888038</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3604,16 +3604,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.8614875182014</v>
+        <v>3.6202050571134898</v>
       </c>
       <c r="C23">
-        <v>15.858444362336201</v>
+        <v>10.628500147499601</v>
       </c>
       <c r="D23">
-        <v>6.0127651211747404</v>
+        <v>6.0829433665034101</v>
       </c>
       <c r="E23">
-        <v>1.1304413775639299</v>
+        <v>1.1352920657521799</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3621,16 +3621,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.7228379690503</v>
+        <v>3.59445702430952</v>
       </c>
       <c r="C24">
-        <v>15.890997454113499</v>
+        <v>10.7156163921108</v>
       </c>
       <c r="D24">
-        <v>6.0426604912035096</v>
+        <v>6.0608438108660296</v>
       </c>
       <c r="E24">
-        <v>1.15583364670067</v>
+        <v>1.13081050564575</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3638,16 +3638,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31.1653464697951</v>
+        <v>3.9647487332174101</v>
       </c>
       <c r="C25">
-        <v>15.4676084044545</v>
+        <v>10.763566645454301</v>
       </c>
       <c r="D25">
-        <v>5.9931227746105602</v>
+        <v>6.0380211114056799</v>
       </c>
       <c r="E25">
-        <v>1.1542424672691001</v>
+        <v>1.1295021856312699</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3655,16 +3655,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>32.399253331128399</v>
+        <v>3.5988968836028801</v>
       </c>
       <c r="C26">
-        <v>14.6154139069208</v>
+        <v>10.628742103721301</v>
       </c>
       <c r="D26">
-        <v>5.99435255516899</v>
+        <v>6.0634795802229604</v>
       </c>
       <c r="E26">
-        <v>1.1649902246461901</v>
+        <v>1.11783073380466</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3672,16 +3672,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>31.939912900592802</v>
+        <v>3.64637537192502</v>
       </c>
       <c r="C27">
-        <v>14.855524864688</v>
+        <v>10.8791979248989</v>
       </c>
       <c r="D27">
-        <v>6.0203166337793199</v>
+        <v>6.04660475141044</v>
       </c>
       <c r="E27">
-        <v>1.1507504894573699</v>
+        <v>1.13119804570155</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3689,16 +3689,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>31.6553331169603</v>
+        <v>3.98954394476511</v>
       </c>
       <c r="C28">
-        <v>15.052383376345199</v>
+        <v>10.950970527018599</v>
       </c>
       <c r="D28">
-        <v>6.0261883377454701</v>
+        <v>6.0209329767400801</v>
       </c>
       <c r="E28">
-        <v>1.1376193649950701</v>
+        <v>1.14201817863822</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3706,16 +3706,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>32.677884366522399</v>
+        <v>3.53126687888044</v>
       </c>
       <c r="C29">
-        <v>15.362319969298801</v>
+        <v>11.0242518160914</v>
       </c>
       <c r="D29">
-        <v>5.9833730790897599</v>
+        <v>6.0848448980980203</v>
       </c>
       <c r="E29">
-        <v>1.1280248355487601</v>
+        <v>1.1358669542611901</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3723,16 +3723,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>32.6394680633204</v>
+        <v>3.80630402420993</v>
       </c>
       <c r="C30">
-        <v>14.8104867655</v>
+        <v>10.579193207105799</v>
       </c>
       <c r="D30">
-        <v>6.0010013237517299</v>
+        <v>6.0717053751446004</v>
       </c>
       <c r="E30">
-        <v>1.13168608556321</v>
+        <v>1.1253504239501</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3740,16 +3740,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>32.543223370681702</v>
+        <v>3.81347665682036</v>
       </c>
       <c r="C31">
-        <v>15.1833580897018</v>
+        <v>10.864410365651</v>
       </c>
       <c r="D31">
-        <v>5.9916229188355601</v>
+        <v>6.0216861054949096</v>
       </c>
       <c r="E31">
-        <v>1.1366163237609599</v>
+        <v>1.1430940267530001</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3757,16 +3757,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>31.530342751587298</v>
+        <v>4.04764214267529</v>
       </c>
       <c r="C32">
-        <v>15.161702148989001</v>
+        <v>10.5460668341196</v>
       </c>
       <c r="D32">
-        <v>6.0023241112603696</v>
+        <v>6.0340306200298803</v>
       </c>
       <c r="E32">
-        <v>1.10931158599646</v>
+        <v>1.08707697654483</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3774,16 +3774,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>31.808155060899502</v>
+        <v>3.8017356520145502</v>
       </c>
       <c r="C33">
-        <v>15.3702002950003</v>
+        <v>10.1894815883158</v>
       </c>
       <c r="D33">
-        <v>6.0005126319580304</v>
+        <v>6.0646665362779997</v>
       </c>
       <c r="E33">
-        <v>1.13027697287854</v>
+        <v>1.1264358900778699</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3791,16 +3791,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>32.0445047387648</v>
+        <v>3.9267010326105498</v>
       </c>
       <c r="C34">
-        <v>14.891872422801301</v>
+        <v>10.810168279817001</v>
       </c>
       <c r="D34">
-        <v>6.0076384559872196</v>
+        <v>6.0029495674033697</v>
       </c>
       <c r="E34">
-        <v>1.12720998629363</v>
+        <v>1.1357505340473799</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3808,16 +3808,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>31.806359781265101</v>
+        <v>3.6720076031125601</v>
       </c>
       <c r="C35">
-        <v>14.7158759730015</v>
+        <v>10.4627029048529</v>
       </c>
       <c r="D35">
-        <v>6.02428549727491</v>
+        <v>6.0443744392864902</v>
       </c>
       <c r="E35">
-        <v>1.1561133665527601</v>
+        <v>1.1448608759300001</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -3825,16 +3825,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>31.696989607525602</v>
+        <v>3.7438405490367601</v>
       </c>
       <c r="C36">
-        <v>15.193928579443901</v>
+        <v>10.5149459791939</v>
       </c>
       <c r="D36">
-        <v>6.0284850037223103</v>
+        <v>6.0206859971949402</v>
       </c>
       <c r="E36">
-        <v>1.00313018893161</v>
+        <v>1.02178033936527</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -3842,16 +3842,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>32.064039613688301</v>
+        <v>3.80346274956888</v>
       </c>
       <c r="C37">
-        <v>15.3102111628194</v>
+        <v>10.7333418480916</v>
       </c>
       <c r="D37">
-        <v>6.0095641505147901</v>
+        <v>6.0435076529459204</v>
       </c>
       <c r="E37">
-        <v>1.1581263287879899</v>
+        <v>1.11882599981617</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -3859,16 +3859,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>32.116286196015203</v>
+        <v>3.71273786574542</v>
       </c>
       <c r="C38">
-        <v>14.711093110505701</v>
+        <v>10.469409497923801</v>
       </c>
       <c r="D38">
-        <v>5.9778125126410302</v>
+        <v>6.0718696086247101</v>
       </c>
       <c r="E38">
-        <v>1.17162232979991</v>
+        <v>1.1653708563096301</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -3876,16 +3876,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>31.9027551095975</v>
+        <v>3.7287433416497402</v>
       </c>
       <c r="C39">
-        <v>14.6384794043437</v>
+        <v>10.653013571083701</v>
       </c>
       <c r="D39">
-        <v>5.9928056594117596</v>
+        <v>6.0680886238245098</v>
       </c>
       <c r="E39">
-        <v>1.16618647308668</v>
+        <v>1.1526453879605201</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -3893,16 +3893,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>32.235312705076403</v>
+        <v>3.9860927996223499</v>
       </c>
       <c r="C40">
-        <v>14.787656151069999</v>
+        <v>10.205633144796099</v>
       </c>
       <c r="D40">
-        <v>6.0179433471639001</v>
+        <v>6.0622885822233199</v>
       </c>
       <c r="E40">
-        <v>1.1667501214390299</v>
+        <v>1.1291468990148401</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -3910,16 +3910,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>31.326355873348302</v>
+        <v>4.3094703545066801</v>
       </c>
       <c r="C41">
-        <v>15.5340716992967</v>
+        <v>10.813594182143699</v>
       </c>
       <c r="D41">
-        <v>6.01801750598678</v>
+        <v>6.0257952532161703</v>
       </c>
       <c r="E41">
-        <v>1.14410902498407</v>
+        <v>1.1360709641556399</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -3927,16 +3927,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>32.087379585913297</v>
+        <v>3.9901666521208798</v>
       </c>
       <c r="C42">
-        <v>15.055274118719201</v>
+        <v>10.5437415356835</v>
       </c>
       <c r="D42">
-        <v>6.0035395957909996</v>
+        <v>6.0507184154481699</v>
       </c>
       <c r="E42">
-        <v>1.1155918427549201</v>
+        <v>1.1125835985107899</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -3944,16 +3944,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>32.123658475077001</v>
+        <v>3.6896144560503199</v>
       </c>
       <c r="C43">
-        <v>15.322123483597901</v>
+        <v>10.7727663053703</v>
       </c>
       <c r="D43">
-        <v>6.0003606355985903</v>
+        <v>6.0385734433430498</v>
       </c>
       <c r="E43">
-        <v>1.13808363536631</v>
+        <v>1.1186316407613399</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -3961,16 +3961,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>32.1086345607063</v>
+        <v>3.88159516257029</v>
       </c>
       <c r="C44">
-        <v>14.968653966077699</v>
+        <v>10.5317954392782</v>
       </c>
       <c r="D44">
-        <v>6.0116498810435797</v>
+        <v>6.0471083376552599</v>
       </c>
       <c r="E44">
-        <v>1.1698907258140301</v>
+        <v>1.13126642772018</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -3978,16 +3978,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-33.509912234416902</v>
+        <v>-34.272157919074402</v>
       </c>
       <c r="C45">
-        <v>9.9662200763170503</v>
+        <v>10.739886436057301</v>
       </c>
       <c r="D45">
-        <v>-33.509912234416902</v>
+        <v>-34.272157919074402</v>
       </c>
       <c r="E45">
-        <v>9.9662200763170503</v>
+        <v>10.739886436057301</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -3995,16 +3995,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>31.675901499199899</v>
+        <v>3.8964491726745099</v>
       </c>
       <c r="C46">
-        <v>15.612878120476701</v>
+        <v>10.6503222748391</v>
       </c>
       <c r="D46">
-        <v>5.9941546156258196</v>
+        <v>6.03914792457776</v>
       </c>
       <c r="E46">
-        <v>1.1439033676936401</v>
+        <v>1.14657518209091</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -4012,16 +4012,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>32.415471812396</v>
+        <v>4.2214756343070698</v>
       </c>
       <c r="C47">
-        <v>15.0708790621118</v>
+        <v>10.5699361097936</v>
       </c>
       <c r="D47">
-        <v>5.9991611725942402</v>
+        <v>6.0175708272400099</v>
       </c>
       <c r="E47">
-        <v>1.13966798004338</v>
+        <v>1.1302258894189701</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -4029,16 +4029,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>32.1818625714563</v>
+        <v>4.0287645196313999</v>
       </c>
       <c r="C48">
-        <v>15.263532571352201</v>
+        <v>10.6992006930427</v>
       </c>
       <c r="D48">
-        <v>6.0118930812593199</v>
+        <v>6.0492794670490602</v>
       </c>
       <c r="E48">
-        <v>1.1428170273653</v>
+        <v>1.13485942671735</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -4046,16 +4046,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>32.330179823772397</v>
+        <v>3.9656431265094398</v>
       </c>
       <c r="C49">
-        <v>14.710151740388</v>
+        <v>10.892448197220901</v>
       </c>
       <c r="D49">
-        <v>6.0093285782500603</v>
+        <v>6.0548750830972002</v>
       </c>
       <c r="E49">
-        <v>1.1539217689741601</v>
+        <v>1.1058639822905301</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -4063,16 +4063,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>31.817661130728801</v>
+        <v>3.6925439186098599</v>
       </c>
       <c r="C50">
-        <v>15.049263645294999</v>
+        <v>10.517608971335299</v>
       </c>
       <c r="D50">
-        <v>6.00525934229002</v>
+        <v>6.0487495617115004</v>
       </c>
       <c r="E50">
-        <v>1.1284226595034299</v>
+        <v>1.1304651973315101</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -4080,16 +4080,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>32.047492846570499</v>
+        <v>3.8748132269587701</v>
       </c>
       <c r="C51">
-        <v>15.2184923379699</v>
+        <v>10.4682050371307</v>
       </c>
       <c r="D51">
-        <v>5.9951770479473403</v>
+        <v>6.0278754143153197</v>
       </c>
       <c r="E51">
-        <v>1.13299650639419</v>
+        <v>1.1388471301207299</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -4097,16 +4097,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>31.664411189814199</v>
+        <v>4.3473789548358797</v>
       </c>
       <c r="C52">
-        <v>15.536736771446</v>
+        <v>11.0314810342072</v>
       </c>
       <c r="D52">
-        <v>6.0110465028157396</v>
+        <v>6.0456276605912302</v>
       </c>
       <c r="E52">
-        <v>1.13085608748664</v>
+        <v>1.1073528550906599</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -4114,16 +4114,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>32.413000936685897</v>
+        <v>3.90761782035176</v>
       </c>
       <c r="C53">
-        <v>14.6384333509979</v>
+        <v>11.0848683386814</v>
       </c>
       <c r="D53">
-        <v>6.0257633995536102</v>
+        <v>6.0703713727829403</v>
       </c>
       <c r="E53">
-        <v>1.12010830102819</v>
+        <v>1.1482894527643399</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -4131,16 +4131,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>31.509857721096498</v>
+        <v>4.02695139442352</v>
       </c>
       <c r="C54">
-        <v>14.832944816946201</v>
+        <v>10.6816658908234</v>
       </c>
       <c r="D54">
-        <v>5.9841428387741598</v>
+        <v>6.0471634855310299</v>
       </c>
       <c r="E54">
-        <v>1.1388541862977</v>
+        <v>1.1118099783025901</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -4148,16 +4148,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>31.7874817239097</v>
+        <v>4.0059470604229999</v>
       </c>
       <c r="C55">
-        <v>15.184178937372799</v>
+        <v>10.376862479872999</v>
       </c>
       <c r="D55">
-        <v>6.0044094566729704</v>
+        <v>6.0451819431257698</v>
       </c>
       <c r="E55">
-        <v>1.1407664259018799</v>
+        <v>1.1569277958823101</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -4165,16 +4165,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>32.021679161445903</v>
+        <v>3.9104264955949501</v>
       </c>
       <c r="C56">
-        <v>14.8243019632682</v>
+        <v>10.5424057028746</v>
       </c>
       <c r="D56">
-        <v>5.98293494836817</v>
+        <v>6.06196749269035</v>
       </c>
       <c r="E56">
-        <v>1.1592312618121701</v>
+        <v>1.1333324321867</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -4182,16 +4182,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-33.074739585474198</v>
+        <v>-33.688570337355401</v>
       </c>
       <c r="C57">
-        <v>9.8554144277393601</v>
+        <v>10.314538255679301</v>
       </c>
       <c r="D57">
-        <v>-33.074739585474198</v>
+        <v>-33.688570337355401</v>
       </c>
       <c r="E57">
-        <v>9.8554144277393601</v>
+        <v>10.314538255679301</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -4199,16 +4199,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>31.783782092744499</v>
+        <v>3.8174048396420202</v>
       </c>
       <c r="C58">
-        <v>14.829222628873801</v>
+        <v>10.4506123646927</v>
       </c>
       <c r="D58">
-        <v>5.9938485277440696</v>
+        <v>6.0468964293840299</v>
       </c>
       <c r="E58">
-        <v>1.1783356748546201</v>
+        <v>1.1306538228185199</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -4216,16 +4216,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>32.068072222957603</v>
+        <v>4.3575847911116599</v>
       </c>
       <c r="C59">
-        <v>14.753179396158901</v>
+        <v>10.9411246703526</v>
       </c>
       <c r="D59">
-        <v>6.0035485892071403</v>
+        <v>6.0377895139114699</v>
       </c>
       <c r="E59">
-        <v>1.1488423581328699</v>
+        <v>1.1543305985527199</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -4233,16 +4233,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>31.712858091437202</v>
+        <v>3.9622023376858002</v>
       </c>
       <c r="C60">
-        <v>15.201189925817699</v>
+        <v>10.698727646485001</v>
       </c>
       <c r="D60">
-        <v>6.0037717719800598</v>
+        <v>6.0585973431038704</v>
       </c>
       <c r="E60">
-        <v>1.13430802835223</v>
+        <v>1.15071531012567</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -4250,16 +4250,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>31.972051881977801</v>
+        <v>3.8821304786161099</v>
       </c>
       <c r="C61">
-        <v>15.0964833574983</v>
+        <v>10.591922206565</v>
       </c>
       <c r="D61">
-        <v>5.9724477328029497</v>
+        <v>6.0243104090797504</v>
       </c>
       <c r="E61">
-        <v>1.1312680516997899</v>
+        <v>1.1388816031670701</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -4267,16 +4267,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>31.519676899021299</v>
+        <v>3.89401291611258</v>
       </c>
       <c r="C62">
-        <v>15.3503307350245</v>
+        <v>10.9081440421251</v>
       </c>
       <c r="D62">
-        <v>6.0261874983667996</v>
+        <v>6.0646866758560902</v>
       </c>
       <c r="E62">
-        <v>1.15230930282777</v>
+        <v>1.1085565378415001</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -4284,16 +4284,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>31.891475247679899</v>
+        <v>3.7473760430438299</v>
       </c>
       <c r="C63">
-        <v>15.501153519516601</v>
+        <v>10.660130497302999</v>
       </c>
       <c r="D63">
-        <v>6.0145296890029698</v>
+        <v>6.0356088691931298</v>
       </c>
       <c r="E63">
-        <v>1.15484077435723</v>
+        <v>1.1528959009231601</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -4301,16 +4301,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>31.4908277628859</v>
+        <v>3.7765055315612699</v>
       </c>
       <c r="C64">
-        <v>15.5374874695325</v>
+        <v>10.6133437683752</v>
       </c>
       <c r="D64">
-        <v>5.9961180059234502</v>
+        <v>6.0573789609874398</v>
       </c>
       <c r="E64">
-        <v>1.1650240772706699</v>
+        <v>1.1584047842954901</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -4318,16 +4318,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>32.047548492055199</v>
+        <v>3.80191570802043</v>
       </c>
       <c r="C65">
-        <v>14.863370540341201</v>
+        <v>10.7763240422802</v>
       </c>
       <c r="D65">
-        <v>6.0164725134285</v>
+        <v>6.0472940763777103</v>
       </c>
       <c r="E65">
-        <v>1.1357616404058299</v>
+        <v>1.10994467174235</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -4335,16 +4335,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>31.686141516780499</v>
+        <v>4.1033085240878302</v>
       </c>
       <c r="C66">
-        <v>15.5083048332577</v>
+        <v>11.349173070529201</v>
       </c>
       <c r="D66">
-        <v>6.03762628660151</v>
+        <v>6.0918038161938499</v>
       </c>
       <c r="E66">
-        <v>1.1690727990144101</v>
+        <v>1.1406304270052601</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -4352,16 +4352,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>31.7603395990885</v>
+        <v>3.9751397114642102</v>
       </c>
       <c r="C67">
-        <v>14.868551038444499</v>
+        <v>11.003970949331499</v>
       </c>
       <c r="D67">
-        <v>5.9997985169127901</v>
+        <v>6.0744420907000496</v>
       </c>
       <c r="E67">
-        <v>1.17686037601647</v>
+        <v>1.1233832544108</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -4369,16 +4369,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>31.6443355250384</v>
+        <v>4.0182282502417603</v>
       </c>
       <c r="C68">
-        <v>15.5180668909115</v>
+        <v>11.4662029164875</v>
       </c>
       <c r="D68">
-        <v>5.98210850987918</v>
+        <v>6.0402209373153797</v>
       </c>
       <c r="E68">
-        <v>1.1362507381862299</v>
+        <v>1.10960025911199</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -4386,16 +4386,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>32.056388861864498</v>
+        <v>4.1760746386853702</v>
       </c>
       <c r="C69">
-        <v>15.575324721089901</v>
+        <v>11.853160810763301</v>
       </c>
       <c r="D69">
-        <v>6.0146271000445299</v>
+        <v>6.0275834440365204</v>
       </c>
       <c r="E69">
-        <v>1.09373527766032</v>
+        <v>1.1299890446493199</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -4403,16 +4403,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>31.528572646987399</v>
+        <v>3.95939687855914</v>
       </c>
       <c r="C70">
-        <v>15.6549866072128</v>
+        <v>11.1594568166974</v>
       </c>
       <c r="D70">
-        <v>5.9961745495162297</v>
+        <v>6.04586470939807</v>
       </c>
       <c r="E70">
-        <v>1.14428867790379</v>
+        <v>1.1395148006946301</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -4420,16 +4420,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>31.674279506165899</v>
+        <v>4.0910455539884696</v>
       </c>
       <c r="C71">
-        <v>15.4620859903081</v>
+        <v>11.143293795961201</v>
       </c>
       <c r="D71">
-        <v>6.0100917344294702</v>
+        <v>6.0665356268741597</v>
       </c>
       <c r="E71">
-        <v>1.1415853505065801</v>
+        <v>1.1234169617794001</v>
       </c>
     </row>
   </sheetData>
